--- a/main.xlsx
+++ b/main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fb1efa335975ee48/_Research/Mestrado/Projeto de Pesquisa/codes/pdptw/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3246" documentId="13_ncr:1_{37F34534-E3CD-4594-9454-7084B684729B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{351F67F1-4512-4A0C-A527-2FDC7806688E}"/>
+  <xr:revisionPtr revIDLastSave="3251" documentId="13_ncr:1_{37F34534-E3CD-4594-9454-7084B684729B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A50CE45-0CC3-4C23-821D-61BE81D90B8C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="714" xr2:uid="{B29DD31F-F5B0-49DC-8214-68AE30AF6B91}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="714" activeTab="1" xr2:uid="{B29DD31F-F5B0-49DC-8214-68AE30AF6B91}"/>
   </bookViews>
   <sheets>
     <sheet name="risk_deterministic" sheetId="15" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">deterministic!$A$2:$R$62</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">risk_deterministic!$A$1:$F$81</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">risk_robust!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">risk_robust!$A$1:$H$397</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">robust!$A$2:$N$1586</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">risk_robust!$G$2:$G$397</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">risk_robust!$H$2:$H$397</definedName>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6452" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6448" uniqueCount="28">
   <si>
     <t>AA</t>
   </si>
@@ -106,18 +106,6 @@
     <t>ML</t>
   </si>
   <si>
-    <t>inf (&gt;)</t>
-  </si>
-  <si>
-    <t>sup (&lt;=)</t>
-  </si>
-  <si>
-    <t>risk giv. Price</t>
-  </si>
-  <si>
-    <t>price giv. Risk</t>
-  </si>
-  <si>
     <t>Risk_demand</t>
   </si>
   <si>
@@ -150,9 +138,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="3">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -218,24 +206,24 @@
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -264,683 +252,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.1</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="clusteredColumn" uniqueId="{775EC45B-5A58-4371-A205-B3A9B59EBD25}">
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:binning intervalClosed="r"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="0.330000013"/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-        <cx:numFmt formatCode="0" sourceLinked="0"/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>85726</xdr:colOff>
-      <xdr:row>400</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>415</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="2" name="Chart 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BB6CAFF-1CDB-9F98-5748-F94B6190D9D7}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1152526" y="76371450"/>
-              <a:ext cx="6753224" cy="2743200"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1262,7 +573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8407AAD-E0BB-421E-BBBE-47F826DCE240}">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
@@ -1279,7 +590,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -1288,13 +599,13 @@
         <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2905,11 +2216,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22EC3901-4BD1-48C3-9303-463B1B056789}">
-  <dimension ref="A1:H421"/>
+  <dimension ref="A1:H397"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A348" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D351" sqref="D351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2927,7 +2238,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>4</v>
@@ -2945,7 +2256,7 @@
         <v>8</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>15</v>
@@ -13247,118 +12558,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B400" s="6">
-        <f>CORREL(risk_robust!$B$2:$B$397,risk_robust!$H$2:$H$397)</f>
-        <v>0.18800296716139217</v>
-      </c>
-      <c r="C400" s="6">
-        <f>CORREL(risk_robust!$C$2:$C$397,risk_robust!$H$2:$H$397)</f>
-        <v>-0.21685447708896077</v>
-      </c>
-      <c r="D400" s="6">
-        <f>CORREL(risk_robust!$D$2:$D$397,risk_robust!$H$2:$H$397)</f>
-        <v>-3.3154128236129059E-2</v>
-      </c>
-      <c r="E400" s="6">
-        <f>CORREL(risk_robust!$E$2:$E$397,risk_robust!$H$2:$H$397)</f>
-        <v>-0.19922575917274649</v>
-      </c>
-      <c r="F400" s="6">
-        <f>CORREL(risk_robust!$F$2:$F$397,risk_robust!$H$2:$H$397)</f>
-        <v>0.10789751608267233</v>
-      </c>
-      <c r="G400" s="6">
-        <f>CORREL(risk_robust!$G$2:$G$397,risk_robust!$H$2:$H$397)</f>
-        <v>-9.0992337143020158E-2</v>
-      </c>
-    </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A417" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B417" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C417" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D417" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A418" s="6">
-        <v>0</v>
-      </c>
-      <c r="B418" s="6">
-        <v>0</v>
-      </c>
-      <c r="C418" s="6">
-        <f>AVERAGEIFS(risk_robust!$H$2:$H$397,risk_robust!$G$2:$G$397,A418)</f>
-        <v>6.2217272727272723</v>
-      </c>
-      <c r="D418" s="6">
-        <f>AVERAGEIFS(risk_robust!$G$2:$G$397,risk_robust!$H$2:$H$397,A418)</f>
-        <v>11.586194462869464</v>
-      </c>
-    </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A419" s="6">
-        <v>0</v>
-      </c>
-      <c r="B419" s="6">
-        <v>33.340000000000003</v>
-      </c>
-      <c r="C419" s="6">
-        <f>AVERAGEIFS(risk_robust!$H$2:$H$397,risk_robust!$G$2:$G$397,"&gt;"&amp;A419,risk_robust!$G$2:$G$397,"&lt;="&amp;B419)</f>
-        <v>5.7944782608695631</v>
-      </c>
-      <c r="D419" s="6">
-        <f>AVERAGEIFS(risk_robust!$G$2:$G$397,risk_robust!$H$2:$H$397,"&gt;"&amp;A419,risk_robust!$H$2:$H$397,"&lt;="&amp;B419)</f>
-        <v>7.2077700277046048</v>
-      </c>
-    </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A420" s="6">
-        <f>B419</f>
-        <v>33.340000000000003</v>
-      </c>
-      <c r="B420" s="6">
-        <f>A420+$B$419</f>
-        <v>66.680000000000007</v>
-      </c>
-      <c r="C420" s="6">
-        <f>AVERAGEIFS(risk_robust!$H$2:$H$397,risk_robust!$G$2:$G$397,"&gt;"&amp;A420,risk_robust!$G$2:$G$397,"&lt;="&amp;B420)</f>
-        <v>1.9023076923076923</v>
-      </c>
-      <c r="D420" s="6">
-        <f>AVERAGEIFS(risk_robust!$G$2:$G$397,risk_robust!$H$2:$H$397,"&gt;"&amp;A420,risk_robust!$H$2:$H$397,"&lt;="&amp;B420)</f>
-        <v>7.3796580307237333E-2</v>
-      </c>
-    </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A421" s="6">
-        <f>B420</f>
-        <v>66.680000000000007</v>
-      </c>
-      <c r="B421" s="6">
-        <f>A421+$B$419</f>
-        <v>100.02000000000001</v>
-      </c>
-      <c r="C421" s="6">
-        <f>AVERAGEIFS(risk_robust!$H$2:$H$397,risk_robust!$G$2:$G$397,"&gt;"&amp;A421,risk_robust!$G$2:$G$397,"&lt;="&amp;B421)</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D421" s="6">
-        <f>AVERAGEIFS(risk_robust!$G$2:$G$397,risk_robust!$H$2:$H$397,"&gt;"&amp;A421,risk_robust!$H$2:$H$397,"&lt;="&amp;B421)</f>
-        <v>6.7977476123627714E-2</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{22EC3901-4BD1-48C3-9303-463B1B056789}"/>
+  <autoFilter ref="A1:H397" xr:uid="{22EC3901-4BD1-48C3-9303-463B1B056789}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13394,28 +12596,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
       <c r="K1" s="12" t="s">
         <v>11</v>
       </c>
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
       <c r="N1" s="12"/>
-      <c r="O1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
+      <c r="O1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -13432,41 +12634,41 @@
       <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>31</v>
+      <c r="G2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -16882,22 +16084,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="10" t="s">
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -16914,29 +16116,29 @@
       <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>31</v>
+      <c r="G2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
